--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>-0.339501744953666</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.606182513885186</v>
+        <v>-1.606875869308119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06200781041424017</v>
+        <v>0.06020555852035089</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1858372404257661</v>
+        <v>-0.1867627636690909</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3555866119865222</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.540855211284283</v>
+        <v>-1.542560661002212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08786894457721046</v>
+        <v>0.08600373191846916</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1873986673940964</v>
+        <v>-0.1881919730312319</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3810606699603021</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.646517540878077</v>
+        <v>-1.648411085881001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1003257319031841</v>
+        <v>0.09866356771109058</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1847558892894326</v>
+        <v>-0.1857978899477336</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4081757239830275</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.694856455102781</v>
+        <v>-1.696978232878295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1430210005684653</v>
+        <v>0.1409747757107744</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2157561958834496</v>
+        <v>-0.2167210696048069</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4293802290373298</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782402611619965</v>
+        <v>-1.782622974296947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2305002612729936</v>
+        <v>0.2280794198644331</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2647821694546021</v>
+        <v>-0.2654558496385188</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4387057352106751</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.709613671374536</v>
+        <v>-1.708884113511813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.304924607385454</v>
+        <v>0.3017151823971219</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2760269620571743</v>
+        <v>-0.2761780678928191</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4344408408392362</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.53966603983814</v>
+        <v>-1.538278541982713</v>
       </c>
       <c r="F8" t="n">
-        <v>0.375032993067308</v>
+        <v>0.3723398463507624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2784415073892495</v>
+        <v>-0.2784352113127643</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.418190757723383</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.182396753704431</v>
+        <v>-1.181268969004019</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4046607549875508</v>
+        <v>0.4026916570668037</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2746559914025213</v>
+        <v>-0.2742089699720719</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3926862029936389</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7841156123556724</v>
+        <v>-0.7832530498771996</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4431171901591692</v>
+        <v>0.4413023461123095</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2349356188764985</v>
+        <v>-0.2345861866315697</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3585403921010564</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2578879657033051</v>
+        <v>-0.257908427951882</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4137019208203019</v>
+        <v>0.412414373179078</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1770180112891184</v>
+        <v>-0.1766370986617636</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.316124419658778</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3137454105412231</v>
+        <v>0.3129709931335432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2871082849514515</v>
+        <v>0.2862126680714314</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1228953638031942</v>
+        <v>-0.1226104663422388</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2662394272621939</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8968297758932138</v>
+        <v>0.8954493611238331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09136641506474059</v>
+        <v>0.09106262937432957</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.009414881233899839</v>
+        <v>-0.009301551857166189</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2105606610097809</v>
       </c>
       <c r="E14" t="n">
-        <v>1.602078487306715</v>
+        <v>1.598267787014046</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009229375257906808</v>
+        <v>0.008744577368546197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08817587830586411</v>
+        <v>0.0881459719425594</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1504080721728846</v>
       </c>
       <c r="E15" t="n">
-        <v>2.26789329767427</v>
+        <v>2.262381082711475</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.133562491388249</v>
+        <v>-0.1344895886506951</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2051270730376265</v>
+        <v>0.2050767044257449</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.08722786013532005</v>
       </c>
       <c r="E16" t="n">
-        <v>2.868589362974494</v>
+        <v>2.862562443759033</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2606031486875488</v>
+        <v>-0.2619032884817432</v>
       </c>
       <c r="G16" t="n">
-        <v>0.309086313942173</v>
+        <v>0.3090422414067766</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.02186097033941264</v>
       </c>
       <c r="E17" t="n">
-        <v>3.404950544729795</v>
+        <v>3.398945661782033</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3737861416429173</v>
+        <v>-0.3761235600380489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3942313042898125</v>
+        <v>0.3942328783089337</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.04785817818975548</v>
       </c>
       <c r="E18" t="n">
-        <v>3.878387164072858</v>
+        <v>3.871639344099842</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5535044968747873</v>
+        <v>-0.5559033020156495</v>
       </c>
       <c r="G18" t="n">
-        <v>0.491066534651352</v>
+        <v>0.4912554169459081</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1227733873954267</v>
       </c>
       <c r="E19" t="n">
-        <v>4.254393573826531</v>
+        <v>4.247639457777029</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7556715128146476</v>
+        <v>-0.7582497561353382</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6137440109464064</v>
+        <v>0.6135267963076668</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2035298600861889</v>
       </c>
       <c r="E20" t="n">
-        <v>4.530197926318201</v>
+        <v>4.524156840930649</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9646933820277724</v>
+        <v>-0.9671346856849098</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7201398334507263</v>
+        <v>0.7199446550796851</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2933555313616369</v>
       </c>
       <c r="E21" t="n">
-        <v>4.739581819929225</v>
+        <v>4.733484069853306</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.085979425419597</v>
+        <v>-1.088822890962227</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8629332741160034</v>
+        <v>0.8627522619170539</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3947030494176683</v>
       </c>
       <c r="E22" t="n">
-        <v>4.886023836917677</v>
+        <v>4.880686338077346</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.253643942220546</v>
+        <v>-1.257148495794122</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9647030544228207</v>
+        <v>0.9641489996921229</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5054625195988112</v>
       </c>
       <c r="E23" t="n">
-        <v>4.9324243465945</v>
+        <v>4.928119404297743</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.505062803475466</v>
+        <v>-1.507478922826662</v>
       </c>
       <c r="G23" t="n">
-        <v>1.017830921824083</v>
+        <v>1.017637317472163</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6202581856585205</v>
       </c>
       <c r="E24" t="n">
-        <v>4.982347511064794</v>
+        <v>4.97864069603413</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.712925407605753</v>
+        <v>-1.714648958543577</v>
       </c>
       <c r="G24" t="n">
-        <v>1.11496521581867</v>
+        <v>1.114228574869901</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7330586919940371</v>
       </c>
       <c r="E25" t="n">
-        <v>4.94877368320745</v>
+        <v>4.945801935106434</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.875704169054184</v>
+        <v>-1.876192114981788</v>
       </c>
       <c r="G25" t="n">
-        <v>1.162204677687146</v>
+        <v>1.161455444585407</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8374412782683592</v>
       </c>
       <c r="E26" t="n">
-        <v>4.937335286252958</v>
+        <v>4.934283263176756</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.937480484517433</v>
+        <v>-1.937885794441168</v>
       </c>
       <c r="G26" t="n">
-        <v>1.191739572479232</v>
+        <v>1.190836085503605</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.927575724730334</v>
       </c>
       <c r="E27" t="n">
-        <v>4.842152775968784</v>
+        <v>4.839931834988628</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.024664616636718</v>
+        <v>-2.024135746211961</v>
       </c>
       <c r="G27" t="n">
-        <v>1.211679246707869</v>
+        <v>1.210863904803035</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9993352998822939</v>
       </c>
       <c r="E28" t="n">
-        <v>4.724941868082007</v>
+        <v>4.723013694658413</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.090005298400152</v>
+        <v>-2.088900336976999</v>
       </c>
       <c r="G28" t="n">
-        <v>1.199718275405105</v>
+        <v>1.199072927565372</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.04995837158975</v>
       </c>
       <c r="E29" t="n">
-        <v>4.602015696765787</v>
+        <v>4.600540840849129</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.182669378090245</v>
+        <v>-2.180845089928657</v>
       </c>
       <c r="G29" t="n">
-        <v>1.16476245875926</v>
+        <v>1.164378398093662</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.077967512742977</v>
       </c>
       <c r="E30" t="n">
-        <v>4.497960440694841</v>
+        <v>4.497182875248919</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.184922586462386</v>
+        <v>-2.182940109379108</v>
       </c>
       <c r="G30" t="n">
-        <v>1.118180936883487</v>
+        <v>1.117897613441653</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.084208187980789</v>
       </c>
       <c r="E31" t="n">
-        <v>4.310139035026515</v>
+        <v>4.309967466942294</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.148540708492642</v>
+        <v>-2.146678643872144</v>
       </c>
       <c r="G31" t="n">
-        <v>1.051532245230252</v>
+        <v>1.051458266331551</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.070167596568083</v>
       </c>
       <c r="E32" t="n">
-        <v>4.123729524509996</v>
+        <v>4.124390612540942</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.066541395358922</v>
+        <v>-2.064999643629609</v>
       </c>
       <c r="G32" t="n">
-        <v>1.024183662997652</v>
+        <v>1.024394581559907</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.037012652499814</v>
       </c>
       <c r="E33" t="n">
-        <v>3.907799285373483</v>
+        <v>3.908926283064334</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.010027025818182</v>
+        <v>-2.008589946360435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9422701339060433</v>
+        <v>0.9424731823726911</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9869169311373096</v>
       </c>
       <c r="E34" t="n">
-        <v>3.693066874788279</v>
+        <v>3.695141431990153</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.910730029550928</v>
+        <v>-1.909450352005311</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8513547894597155</v>
+        <v>0.8519261584007477</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9224844083606074</v>
       </c>
       <c r="E35" t="n">
-        <v>3.454580941643527</v>
+        <v>3.456389489613901</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.847080631333331</v>
+        <v>-1.845724613860331</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7815690776977283</v>
+        <v>0.7824332141953224</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8471207349240717</v>
       </c>
       <c r="E36" t="n">
-        <v>3.220777715384644</v>
+        <v>3.222671260387568</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.764949887602983</v>
+        <v>-1.764190423376955</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7284286181434958</v>
+        <v>0.7292297938762379</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7655920163671096</v>
       </c>
       <c r="E37" t="n">
-        <v>3.035336226627725</v>
+        <v>3.036425447859665</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.690087964174801</v>
+        <v>-1.689932136281792</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6674668575755202</v>
+        <v>0.668257015174413</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6835719225119719</v>
       </c>
       <c r="E38" t="n">
-        <v>2.800371374257322</v>
+        <v>2.802447505478317</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.622035247465366</v>
+        <v>-1.62182275488399</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5873980788940755</v>
+        <v>0.5884007290743439</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6060357523908319</v>
       </c>
       <c r="E39" t="n">
-        <v>2.552087172082472</v>
+        <v>2.554315983158234</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.571207022000324</v>
+        <v>-1.571246372478356</v>
       </c>
       <c r="G39" t="n">
-        <v>0.529478897287574</v>
+        <v>0.5302281303893132</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5362460189253391</v>
       </c>
       <c r="E40" t="n">
-        <v>2.305945209931714</v>
+        <v>2.308254295982662</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.500114874367657</v>
+        <v>-1.500664207040991</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5022231821831313</v>
+        <v>0.5028323275830747</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4775408074832303</v>
       </c>
       <c r="E41" t="n">
-        <v>2.104302342359246</v>
+        <v>2.1069813229037</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.476469959127478</v>
+        <v>-1.477075169479618</v>
       </c>
       <c r="G41" t="n">
-        <v>0.429144622419383</v>
+        <v>0.4300213510699475</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4302358308851198</v>
       </c>
       <c r="E42" t="n">
-        <v>1.899280055733347</v>
+        <v>1.902037737233865</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.441488171166131</v>
+        <v>-1.442271245678978</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4127102887738825</v>
+        <v>0.4132391591986396</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3927495374175586</v>
       </c>
       <c r="E43" t="n">
-        <v>1.754087809927207</v>
+        <v>1.756434672437067</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.406668507174278</v>
+        <v>-1.407113954585606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3673250214302985</v>
+        <v>0.3680836986467654</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3634846806973394</v>
       </c>
       <c r="E44" t="n">
-        <v>1.518672788088113</v>
+        <v>1.52150130044909</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.366436578433832</v>
+        <v>-1.366971744935074</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3142821510615866</v>
+        <v>0.3148897224424086</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3399920294216812</v>
       </c>
       <c r="E45" t="n">
-        <v>1.319874173067836</v>
+        <v>1.323189057337295</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.311237301868938</v>
+        <v>-1.311847234278442</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2972906146471457</v>
+        <v>0.2975503278021603</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.319538950101099</v>
       </c>
       <c r="E46" t="n">
-        <v>1.160477978711079</v>
+        <v>1.163563056188828</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.267101805707667</v>
+        <v>-1.267087639535575</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2744248388720106</v>
+        <v>0.2744169687764041</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2999352612180394</v>
       </c>
       <c r="E47" t="n">
-        <v>1.013359133500467</v>
+        <v>1.016176627727596</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.188581074832022</v>
+        <v>-1.188648757654237</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2451244729289983</v>
+        <v>0.2450866964700871</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2802596813481922</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8653509674863213</v>
+        <v>0.8682613288416062</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.170435782401667</v>
+        <v>-1.169734556883128</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2053301215042743</v>
+        <v>0.2053395656190021</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.259569901372666</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7350898670648403</v>
+        <v>0.7375815393338593</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.089120380576152</v>
+        <v>-1.088901591918292</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1656978940490443</v>
+        <v>0.1655294740030651</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2372332130907955</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6022300610740918</v>
+        <v>0.6046036819090133</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.031722986308362</v>
+        <v>-1.031604934874265</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1229821631351862</v>
+        <v>0.1229349425615472</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2138717871700539</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4839598383186794</v>
+        <v>0.4866718732646805</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9697089939577971</v>
+        <v>-0.9700387509637096</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1027308331205316</v>
+        <v>0.1024726939846382</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1900084472898816</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3653968480067051</v>
+        <v>0.3676665835796207</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9432930180545683</v>
+        <v>-0.9436660605863165</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06052036234461102</v>
+        <v>0.06041175502524127</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1661572784792296</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2060762065677708</v>
+        <v>0.2087504650548607</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9239294348243272</v>
+        <v>-0.9242410906103448</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02324129347572553</v>
+        <v>0.0231657405579031</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.143366614304356</v>
       </c>
       <c r="E54" t="n">
-        <v>0.103157392302404</v>
+        <v>0.105376759263438</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8766262251814383</v>
+        <v>-0.8770024157514292</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01304771736586183</v>
+        <v>-0.01328854229142083</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1223315510384696</v>
       </c>
       <c r="E55" t="n">
-        <v>0.008615507800599539</v>
+        <v>0.01022572936169014</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8497710979433667</v>
+        <v>-0.8505392192745613</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04147135465830964</v>
+        <v>-0.04173264183244556</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1034971004286358</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08861007930302264</v>
+        <v>-0.08683930779155936</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8478405634910914</v>
+        <v>-0.8486236380039385</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04760215913577583</v>
+        <v>-0.04790594482618686</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08687043744298988</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2227338226481755</v>
+        <v>-0.2202090959776092</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8355742324787951</v>
+        <v>-0.8365391062001524</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08890599489782718</v>
+        <v>-0.08949625206831494</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07257032355629585</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3109875007603838</v>
+        <v>-0.3085587892562169</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7852567762186153</v>
+        <v>-0.7867300581161528</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1206350723450064</v>
+        <v>-0.1211749609036126</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.06010405879705512</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4319666104235547</v>
+        <v>-0.4287493153396161</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8385436195511289</v>
+        <v>-0.8395549268365645</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1478750472582361</v>
+        <v>-0.1483928995491441</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.04863426574900362</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4923554280313769</v>
+        <v>-0.4894623808864262</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8104961728286719</v>
+        <v>-0.8119159380760851</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1661494092565371</v>
+        <v>-0.1668876242244272</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.03731094388679075</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5919294516639797</v>
+        <v>-0.5891025133221236</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.829695271060737</v>
+        <v>-0.8311063792029831</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1989126172664109</v>
+        <v>-0.1996177778327536</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02541134344451982</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6804145105870192</v>
+        <v>-0.6779543187004262</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8711124361995221</v>
+        <v>-0.8727391849613862</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2237049924460181</v>
+        <v>-0.2247989357353221</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01205977756148322</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7645568507543901</v>
+        <v>-0.7618290756171759</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8723653554200773</v>
+        <v>-0.8741101556160392</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2370715628241035</v>
+        <v>-0.238351240369721</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.003200238515466368</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8142785407771574</v>
+        <v>-0.8115240073148813</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8803149389922065</v>
+        <v>-0.8820857105036698</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.26421080051357</v>
+        <v>-0.2652795594969332</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.02110019473871992</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8918406940079308</v>
+        <v>-0.8893576788440789</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8829034134371855</v>
+        <v>-0.8849457032470731</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2760458502866299</v>
+        <v>-0.2772877513733361</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.04216866030251515</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9196567599195565</v>
+        <v>-0.9175420652300891</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8938082179095567</v>
+        <v>-0.8957332432949073</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2899475871659575</v>
+        <v>-0.2911926362909064</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06590664076132648</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9895109415133204</v>
+        <v>-0.9876583210075495</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8690402400263296</v>
+        <v>-0.8713595572015662</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2836137342218435</v>
+        <v>-0.2851641430563247</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.0915742852656138</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.010694090847785</v>
+        <v>-1.00916257024276</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9242615528589216</v>
+        <v>-0.9264368472845592</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3047386448488201</v>
+        <v>-0.306460621767523</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1183248022078549</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.02300685542416</v>
+        <v>-1.021395846853508</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9052245785963505</v>
+        <v>-0.9074510286434303</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.322148870349527</v>
+        <v>-0.3237118713369786</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1450503060715995</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.02670973540702</v>
+        <v>-1.025563849486713</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9391218673831215</v>
+        <v>-0.941412065204614</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3217049969573202</v>
+        <v>-0.3234427140672362</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1704874199026001</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.992984801714031</v>
+        <v>-0.992278067128567</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9834517549058734</v>
+        <v>-0.9854956187348823</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3179808677163228</v>
+        <v>-0.3199515396561912</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1937870209203673</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9294463718444862</v>
+        <v>-0.9294770652173515</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.04084521412586</v>
+        <v>-1.042764730444287</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2913185578206104</v>
+        <v>-0.2935190365521888</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.213861709659093</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8595953382889648</v>
+        <v>-0.8598251450806748</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.077694575774631</v>
+        <v>-1.07938822034915</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2955684094481223</v>
+        <v>-0.2974918608143517</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2298864060165581</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8008379915003708</v>
+        <v>-0.8015431520667136</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.123316732995971</v>
+        <v>-1.124579096331254</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2925636069455593</v>
+        <v>-0.2944083573557237</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.241141009126304</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6777874726735683</v>
+        <v>-0.6787916968729582</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.164614272681537</v>
+        <v>-1.165481557217373</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2606849976818564</v>
+        <v>-0.2629673254077424</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.247194489685876</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5342668351742503</v>
+        <v>-0.53588807486919</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.227444393946496</v>
+        <v>-1.227696237005904</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2307597461476878</v>
+        <v>-0.2331081826766684</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2478965687116046</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4137127106738306</v>
+        <v>-0.4157841198374623</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.226610163812207</v>
+        <v>-1.226810851250173</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.193107634747054</v>
+        <v>-0.1954182948171234</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.243257019620938</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2790884292481041</v>
+        <v>-0.281166134488221</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.259842429520228</v>
+        <v>-1.25996520301169</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1718347663226752</v>
+        <v>-0.174016356824798</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2336877173906856</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1313242361977594</v>
+        <v>-0.1337309114342282</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.281673287723108</v>
+        <v>-1.281026365864254</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1354450182573246</v>
+        <v>-0.1377462342126662</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2197878529152823</v>
       </c>
       <c r="E80" t="n">
-        <v>0.009907777499187405</v>
+        <v>0.007660078193970023</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.268229590408079</v>
+        <v>-1.267498458526235</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1086898412334555</v>
+        <v>-0.1107769905883002</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2021355480754578</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1623656955692507</v>
+        <v>0.1607381597978258</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.307939731809813</v>
+        <v>-1.306867037778647</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.08960328536856338</v>
+        <v>-0.09176441362210923</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.181866577466887</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2734143185961356</v>
+        <v>0.27207640234303</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.311274291318289</v>
+        <v>-1.310706070415499</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01814281726151215</v>
+        <v>-0.02056523268919391</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1603334890762655</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4349385868048908</v>
+        <v>0.4338792719362555</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.290224933609135</v>
+        <v>-1.289112889099936</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.005456223143828608</v>
+        <v>-0.007785771443353627</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1390744200510618</v>
       </c>
       <c r="E84" t="n">
-        <v>0.567618954615811</v>
+        <v>0.5670869361528114</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.290744359919164</v>
+        <v>-1.289365519168905</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07504383677685247</v>
+        <v>0.07224050872181594</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1199834891541941</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7056698756686092</v>
+        <v>0.7050560082113019</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.238747425256556</v>
+        <v>-1.237370945534979</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1147437470542984</v>
+        <v>0.1118837543108951</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1041433496263004</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8920919783380987</v>
+        <v>0.8912435820317176</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.198854697636751</v>
+        <v>-1.197224800836644</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1588524848905076</v>
+        <v>0.1560444347781072</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.0922876924467043</v>
       </c>
       <c r="E87" t="n">
-        <v>1.014564832147384</v>
+        <v>1.013655049095272</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.06458771855156</v>
+        <v>-1.063446554688617</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1887415339848864</v>
+        <v>0.1863112484615981</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08514114357306035</v>
       </c>
       <c r="E88" t="n">
-        <v>1.149366977733817</v>
+        <v>1.14840210401246</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9500376899893418</v>
+        <v>-0.948999624378844</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2202392306212344</v>
+        <v>0.2180277337558069</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08309370828795223</v>
       </c>
       <c r="E89" t="n">
-        <v>1.254045545376798</v>
+        <v>1.253371865192882</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8649454292822659</v>
+        <v>-0.8637830161611854</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2321624254650871</v>
+        <v>0.2299351884084467</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08566152103117743</v>
       </c>
       <c r="E90" t="n">
-        <v>1.331325162175298</v>
+        <v>1.330678240316444</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7485144478700934</v>
+        <v>-0.7469671870738548</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1990954317648023</v>
+        <v>0.1977559414925754</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.09197667753337929</v>
       </c>
       <c r="E91" t="n">
-        <v>1.322246219883636</v>
+        <v>1.322079373856778</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6084141539213618</v>
+        <v>-0.6064938505933749</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1939216309130869</v>
+        <v>0.1925994548511943</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1001160303381909</v>
       </c>
       <c r="E92" t="n">
-        <v>1.307965144396075</v>
+        <v>1.308224857551089</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4767002338509203</v>
+        <v>-0.4745847521518921</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1691324037717224</v>
+        <v>0.1680337384250545</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1078543628772266</v>
       </c>
       <c r="E93" t="n">
-        <v>1.276621701633614</v>
+        <v>1.277383526888324</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3410370998051352</v>
+        <v>-0.3386524608363647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1619658947124404</v>
+        <v>0.1610608337176924</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1137195449864958</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195806837888673</v>
+        <v>1.19686772677643</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1914738028991439</v>
+        <v>-0.1893772094295714</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1436883846758968</v>
+        <v>0.142553516889439</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1177897738593529</v>
       </c>
       <c r="E95" t="n">
-        <v>1.163018445572858</v>
+        <v>1.164282382927263</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09841936646696853</v>
+        <v>-0.09620472156329846</v>
       </c>
       <c r="G95" t="n">
-        <v>0.125163753637309</v>
+        <v>0.1241469372849487</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1210569692302553</v>
       </c>
       <c r="E96" t="n">
-        <v>1.122224592006108</v>
+        <v>1.122983269222575</v>
       </c>
       <c r="F96" t="n">
-        <v>0.008451809811984269</v>
+        <v>0.01044451801955094</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05715196142502755</v>
+        <v>0.056583740522238</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1238030229571992</v>
       </c>
       <c r="E97" t="n">
-        <v>1.027127078754485</v>
+        <v>1.028400460223617</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06493076392249555</v>
+        <v>0.0664245080686099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03227773725111278</v>
+        <v>0.03198024763718695</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1287567259035376</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002244984484963</v>
+        <v>1.003353093946359</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09952927822780597</v>
+        <v>0.1004469313755243</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.00745207938963788</v>
+        <v>-0.007411154892484063</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1370013182024357</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9776682499249745</v>
+        <v>0.9783403560897699</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1648101472646307</v>
+        <v>0.1652256883126541</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02552339292129108</v>
+        <v>-0.02527784593836817</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.152608703180869</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8872361293488861</v>
+        <v>0.8877996281943117</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1535055419354492</v>
+        <v>0.1538534001612566</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0363227381125351</v>
+        <v>-0.03589775294978391</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1729361990659415</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8058577667585192</v>
+        <v>0.8064401538334005</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1416201235505077</v>
+        <v>0.141747619099333</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06511312186024598</v>
+        <v>-0.06466295239155398</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2036432050867106</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6844363577222629</v>
+        <v>0.6847763458524638</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1372962930242947</v>
+        <v>0.137261664603626</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08272324778935806</v>
+        <v>-0.08240214788861273</v>
       </c>
     </row>
   </sheetData>
